--- a/Pilot score comparison.xlsx
+++ b/Pilot score comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F91BF4-0CB9-41E5-AF14-862464F8DFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ECA555-6869-4F52-9918-CB2F3BC28A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>subject Id</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>mismatched left</t>
+  </si>
+  <si>
+    <t>Matched_avg</t>
+  </si>
+  <si>
+    <t>Mismatched_avg</t>
   </si>
 </sst>
 </file>
@@ -98,9 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B9776-BC18-4708-978C-FEED980A1063}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,105 +436,144 @@
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>93.3333333333333</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>90</v>
       </c>
       <c r="D2">
         <v>56.6666666666666</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>88.3333333333333</v>
       </c>
       <c r="F2">
+        <f>SUM(B2:C2)/2</f>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="G2" s="3">
+        <f xml:space="preserve"> SUM(D2:E2)/2</f>
+        <v>72.499999999999943</v>
+      </c>
+      <c r="H2">
         <v>82.0833333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>91.6666666666666</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>98.3333333333333</v>
       </c>
       <c r="D3">
         <v>80</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>93.3333333333333</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">SUM(B3:C3)/2</f>
+        <v>94.999999999999943</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G5" si="1" xml:space="preserve"> SUM(D3:E3)/2</f>
+        <v>86.666666666666657</v>
+      </c>
+      <c r="H3">
         <v>90.8333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>78.3333333333333</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>93.3333333333333</v>
       </c>
       <c r="D4">
         <v>66.6666666666666</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>80</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>85.8333333333333</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>73.3333333333333</v>
+      </c>
+      <c r="H4">
         <v>79.5833333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>91.6666666666666</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>100</v>
       </c>
       <c r="D5">
         <v>98.3333333333333</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>100</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>95.8333333333333</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>99.166666666666657</v>
+      </c>
+      <c r="H5">
         <v>97.5</v>
       </c>
     </row>

--- a/Pilot score comparison.xlsx
+++ b/Pilot score comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ECA555-6869-4F52-9918-CB2F3BC28A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43187FD7-8B23-4890-BC04-5270B8485361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>subject Id</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Mismatched_avg</t>
+  </si>
+  <si>
+    <t>419_pilot5</t>
   </si>
 </sst>
 </file>
@@ -104,11 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B9776-BC18-4708-978C-FEED980A1063}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +437,7 @@
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -446,19 +447,19 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -472,20 +473,20 @@
       <c r="B2">
         <v>93.3333333333333</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>90</v>
       </c>
       <c r="D2">
         <v>56.6666666666666</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>88.3333333333333</v>
       </c>
       <c r="F2">
         <f>SUM(B2:C2)/2</f>
         <v>91.666666666666657</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <f xml:space="preserve"> SUM(D2:E2)/2</f>
         <v>72.499999999999943</v>
       </c>
@@ -500,21 +501,21 @@
       <c r="B3">
         <v>91.6666666666666</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>98.3333333333333</v>
       </c>
       <c r="D3">
         <v>80</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>93.3333333333333</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">SUM(B3:C3)/2</f>
+        <f t="shared" ref="F3:F6" si="0">SUM(B3:C3)/2</f>
         <v>94.999999999999943</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G5" si="1" xml:space="preserve"> SUM(D3:E3)/2</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1" xml:space="preserve"> SUM(D3:E3)/2</f>
         <v>86.666666666666657</v>
       </c>
       <c r="H3">
@@ -528,20 +529,20 @@
       <c r="B4">
         <v>78.3333333333333</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>93.3333333333333</v>
       </c>
       <c r="D4">
         <v>66.6666666666666</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>80</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>85.8333333333333</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>73.3333333333333</v>
       </c>
@@ -556,25 +557,53 @@
       <c r="B5">
         <v>91.6666666666666</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
         <v>98.3333333333333</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>95.8333333333333</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>99.166666666666657</v>
       </c>
       <c r="H5">
         <v>97.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>91.6666666666666</v>
+      </c>
+      <c r="E6">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>96.666666666666657</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>94.999999999999943</v>
+      </c>
+      <c r="H6">
+        <v>95.8333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Pilot score comparison.xlsx
+++ b/Pilot score comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43187FD7-8B23-4890-BC04-5270B8485361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8578724-FA9B-4464-86FC-709D3AE1A2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
   </bookViews>
@@ -36,18 +36,6 @@
     <t>overall score</t>
   </si>
   <si>
-    <t>pilot002</t>
-  </si>
-  <si>
-    <t>419_pilot2</t>
-  </si>
-  <si>
-    <t>419_pilot3</t>
-  </si>
-  <si>
-    <t>419_pilot4</t>
-  </si>
-  <si>
     <t>matched left</t>
   </si>
   <si>
@@ -63,7 +51,19 @@
     <t>Mismatched_avg</t>
   </si>
   <si>
-    <t>419_pilot5</t>
+    <t>pilot823-1</t>
+  </si>
+  <si>
+    <t>pilot822-1</t>
+  </si>
+  <si>
+    <t>pilot821-1</t>
+  </si>
+  <si>
+    <t>pilot725-1</t>
+  </si>
+  <si>
+    <t>pilot720-2</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,19 +448,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -468,139 +468,139 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>93.3333333333333</v>
+        <v>95</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="D2">
-        <v>56.6666666666666</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>88.3333333333333</v>
+        <v>81.6666666666666</v>
       </c>
       <c r="F2">
-        <f>SUM(B2:C2)/2</f>
-        <v>91.666666666666657</v>
+        <f>(B2+C2)/2</f>
+        <v>89.166666666666657</v>
       </c>
       <c r="G2">
-        <f xml:space="preserve"> SUM(D2:E2)/2</f>
-        <v>72.499999999999943</v>
+        <f>(D2+E2)/2</f>
+        <v>80.8333333333333</v>
       </c>
       <c r="H2">
-        <v>82.0833333333333</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>91.6666666666666</v>
       </c>
       <c r="C3">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="D3">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="E3">
         <v>98.3333333333333</v>
       </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>93.3333333333333</v>
-      </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">SUM(B3:C3)/2</f>
-        <v>94.999999999999943</v>
+        <f t="shared" ref="F3:F6" si="0">(B3+C3)/2</f>
+        <v>94.1666666666666</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="1" xml:space="preserve"> SUM(D3:E3)/2</f>
-        <v>86.666666666666657</v>
+        <f t="shared" ref="G3:G6" si="1">(D3+E3)/2</f>
+        <v>97.499999999999943</v>
       </c>
       <c r="H3">
-        <v>90.8333333333333</v>
+        <v>95.8333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>78.3333333333333</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>93.3333333333333</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>66.6666666666666</v>
+        <v>81.6666666666666</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>86.6666666666666</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>85.8333333333333</v>
+        <v>82.5</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>73.3333333333333</v>
+        <v>84.1666666666666</v>
       </c>
       <c r="H4">
-        <v>79.5833333333333</v>
+        <v>83.3333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>91.6666666666666</v>
+        <v>95</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>98.3333333333333</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>61.6666666666666</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>95.8333333333333</v>
+        <v>95</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>99.166666666666657</v>
+        <v>63.3333333333333</v>
       </c>
       <c r="H5">
-        <v>97.5</v>
+        <v>79.1666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>93.3333333333333</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>98.3333333333333</v>
       </c>
       <c r="D6">
-        <v>91.6666666666666</v>
+        <v>93.3333333333333</v>
       </c>
       <c r="E6">
         <v>98.3333333333333</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>96.666666666666657</v>
+        <v>95.8333333333333</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>94.999999999999943</v>
+        <v>95.8333333333333</v>
       </c>
       <c r="H6">
         <v>95.8333333333333</v>

--- a/Pilot score comparison.xlsx
+++ b/Pilot score comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8578724-FA9B-4464-86FC-709D3AE1A2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95CDABC-836E-420A-B8D9-0E140517B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>subject Id</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>pilot720-2</t>
+  </si>
+  <si>
+    <t>new_pilot1</t>
+  </si>
+  <si>
+    <t>new_pilot2</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B9776-BC18-4708-978C-FEED980A1063}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,6 +612,62 @@
         <v>95.8333333333333</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="E9">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(B9:C9)</f>
+        <v>99.166666666666657</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(D9:E9)</f>
+        <v>98.3333333333333</v>
+      </c>
+      <c r="H9">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="D10">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(B10:C10)</f>
+        <v>99.166666666666657</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(D10:E10)</f>
+        <v>98.3333333333333</v>
+      </c>
+      <c r="H10">
+        <v>98.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pilot score comparison.xlsx
+++ b/Pilot score comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95CDABC-836E-420A-B8D9-0E140517B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9622ABC3-1DF6-4448-AFD5-9B21F8F82C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
+    <workbookView xWindow="5016" yWindow="2220" windowWidth="17280" windowHeight="8880" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>subject Id</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>new_pilot2</t>
+  </si>
+  <si>
+    <t>new_pilot4</t>
+  </si>
+  <si>
+    <t>new_pilot5</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B9776-BC18-4708-978C-FEED980A1063}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,6 +674,62 @@
         <v>98.75</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>88.3333333333333</v>
+      </c>
+      <c r="C11">
+        <v>71.6666666666666</v>
+      </c>
+      <c r="D11">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE(B11:C11)</f>
+        <v>79.999999999999943</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G12" si="2">AVERAGE(D11:E11)</f>
+        <v>81.666666666666657</v>
+      </c>
+      <c r="H11">
+        <v>80.8333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(B12:C12)</f>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>98.3333333333333</v>
+      </c>
+      <c r="H12">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pilot score comparison.xlsx
+++ b/Pilot score comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9622ABC3-1DF6-4448-AFD5-9B21F8F82C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D3917-6D62-4A47-9BB1-D89F5F1BE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="2220" windowWidth="17280" windowHeight="8880" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>subject Id</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>new_pilot5</t>
+  </si>
+  <si>
+    <t>sameface2</t>
+  </si>
+  <si>
+    <t>sameface3</t>
+  </si>
+  <si>
+    <t>sameface4</t>
+  </si>
+  <si>
+    <t>sameface5</t>
+  </si>
+  <si>
+    <t>sameface6</t>
   </si>
 </sst>
 </file>
@@ -436,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B9776-BC18-4708-978C-FEED980A1063}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="E14" sqref="E14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +745,106 @@
         <v>95</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>86.6666666666666</v>
+      </c>
+      <c r="C14">
+        <v>86.6666666666666</v>
+      </c>
+      <c r="D14">
+        <v>63.3333333333333</v>
+      </c>
+      <c r="E14">
+        <v>78.3333333333333</v>
+      </c>
+      <c r="H14">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="C15">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="D15">
+        <v>28.3333333333333</v>
+      </c>
+      <c r="E15">
+        <v>51.6666666666666</v>
+      </c>
+      <c r="H15">
+        <v>64.1666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="C16">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>85</v>
+      </c>
+      <c r="H16">
+        <v>92.0833333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>91.6666666666666</v>
+      </c>
+      <c r="C17">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="D17">
+        <v>81.6666666666666</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>84.1666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>88.3333333333333</v>
+      </c>
+      <c r="D18">
+        <v>88.3333333333333</v>
+      </c>
+      <c r="E18">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="H18">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pilot score comparison.xlsx
+++ b/Pilot score comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D3917-6D62-4A47-9BB1-D89F5F1BE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58B6D3-0BC2-41FF-9139-C049C61B3AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>subject Id</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>sameface6</t>
+  </si>
+  <si>
+    <t>sameface7</t>
+  </si>
+  <si>
+    <t>sameface8</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B9776-BC18-4708-978C-FEED980A1063}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E18"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,6 +851,46 @@
         <v>85</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="C19">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="D19">
+        <v>81.6666666666666</v>
+      </c>
+      <c r="E19">
+        <v>95</v>
+      </c>
+      <c r="H19">
+        <v>89.1666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="H20">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pilot score comparison.xlsx
+++ b/Pilot score comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58B6D3-0BC2-41FF-9139-C049C61B3AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B66EBF-63FF-4772-A57C-13AC9ED44F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
+    <workbookView xWindow="4596" yWindow="3888" windowWidth="17280" windowHeight="8880" xr2:uid="{9E0A0D9C-8569-40C9-814E-F0B06C39C2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>subject Id</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>sameface8</t>
+  </si>
+  <si>
+    <t>pilot118</t>
+  </si>
+  <si>
+    <t>pilot119</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B9776-BC18-4708-978C-FEED980A1063}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,6 +897,46 @@
         <v>93.3333333333333</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="C23">
+        <v>85</v>
+      </c>
+      <c r="D23">
+        <v>38.3333333333333</v>
+      </c>
+      <c r="E23">
+        <v>46.6666666666666</v>
+      </c>
+      <c r="H23">
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>95</v>
+      </c>
+      <c r="C24">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>91.6666666666666</v>
+      </c>
+      <c r="H24">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
